--- a/Congreso_2016/UNIV_Y_PONEN.xlsx
+++ b/Congreso_2016/UNIV_Y_PONEN.xlsx
@@ -15,652 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="306">
   <si>
     <t>Institución</t>
   </si>
   <si>
     <t>Título de la actividad</t>
-  </si>
-  <si>
-    <t>Universidad del Norte</t>
-  </si>
-  <si>
-    <t>Coordinador: Figuras de la alteridad: el otro, lo otro, lo extraño</t>
-  </si>
-  <si>
-    <t>Universidad Nacional de San Martín (Argentina)</t>
-  </si>
-  <si>
-    <t>La Naturaleza como el “otro lado del hombre”. Un análisis desde la lógica responsiva</t>
-  </si>
-  <si>
-    <t>La carne y el rostro: Un diálogo entre Merleau-Ponty y Lévinas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universidad de Antioquia, Instituto de Filosofía </t>
-  </si>
-  <si>
-    <t>El tiempo: lo otro del espacio. Reflexiones en torno a la unidad y alteridad espacio-temporal en Chillida y Heidegger</t>
-  </si>
-  <si>
-    <t>Universidad de Antioquia, Intituto de Filosofía</t>
-  </si>
-  <si>
-    <t>Tiempo y discurso en Bernhard Waldenfels. Una perspectiva fenonemonógica de lo extraño</t>
-  </si>
-  <si>
-    <t>Facultad de Filosofía. Universidad Michoacana de San Nicolás de Hidalgo, Morelia (México)</t>
-  </si>
-  <si>
-    <t>Sentir, percibir, concebir. Aproximación histórico-fenomenológica, ontológica y política a la diferencia de los sexos y la actividad de pensar.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instituto de Investigaciones Filosóficas Luis Villoro. Universidad Michoacana de San Nicolás de Hidalgo, Morelia (México) </t>
-  </si>
-  <si>
-    <t>La alteridad indígena: motivo y razón de la filosofía de Luis Villoro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universidad de Medellín </t>
-  </si>
-  <si>
-    <t>Límite, juicio y alteridad en Hegel</t>
-  </si>
-  <si>
-    <t>Universidad de Antioquia. Instituto de Filosofía</t>
-  </si>
-  <si>
-    <t>Alteridad, diferencia y perspectiva: el papel del otro y de lo otro en la filosofía hermenéutica</t>
-  </si>
-  <si>
-    <t>Universidad Nacional</t>
-  </si>
-  <si>
-    <t>Coordinador: Retórica, responsabilidad y sentimientos morales en Colombia</t>
-  </si>
-  <si>
-    <t>Universidad del Rosario</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "El perdón interpersonal en el contexto de la justicia transicional". </t>
-  </si>
-  <si>
-    <t>universidad del Rosario</t>
-  </si>
-  <si>
-    <t>¿Mutar de guerrillero a ciudadano y de ciudadano a político? Solo naturalizando del daño.</t>
-  </si>
-  <si>
-    <t>Universidad de Los Andes</t>
-  </si>
-  <si>
-    <t>La retórica cínica de los Nule y los sentimientos morales</t>
-  </si>
-  <si>
-    <t>El carrusel de la contratación como una patente de mala fe</t>
-  </si>
-  <si>
-    <t>Universidad del Bosque</t>
-  </si>
-  <si>
-    <t>Si de algo soy culpable, fue de haberme enamorado”, cuando la ‘galantería’ y la pasión disfrazan el daño.</t>
-  </si>
-  <si>
-    <t>Universidad Pedagógica</t>
-  </si>
-  <si>
-    <t>Cuando las palabras esconden el daño: Una lectura de Marvel Moreno</t>
-  </si>
-  <si>
-    <t>Palabrerío y empatía. Sobre Memoria por correspondencia de Emma Reyes</t>
-  </si>
-  <si>
-    <t>Universidad Nacional de Colombia.</t>
-  </si>
-  <si>
-    <t>Coordinador: Verdad y política</t>
-  </si>
-  <si>
-    <t>Universidad Nacional de Colombia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La nueva política </t>
-  </si>
-  <si>
-    <t>Perdón y comprensión</t>
-  </si>
-  <si>
-    <t>Epistemología y política</t>
-  </si>
-  <si>
-    <t>Universidad de los Andes</t>
-  </si>
-  <si>
-    <t>La ciencia de la historia contra la ciencia del Estado (razones para omitir el uso de la palabra 'pos-moderno')</t>
-  </si>
-  <si>
-    <t>Recursos de verdad, recursos de sentido</t>
-  </si>
-  <si>
-    <t>Política del individuo</t>
-  </si>
-  <si>
-    <t>Coordinador: Filosofía medieval</t>
-  </si>
-  <si>
-    <t>Universidad Javeriana</t>
-  </si>
-  <si>
-    <t>Univocidad del ser en Enrique de Gante y Juan Duns Escoto: el transfondo aviceniano</t>
-  </si>
-  <si>
-    <t>Agustín y Cicerón: de la retórica a la filosofía</t>
-  </si>
-  <si>
-    <t>Ockham y Anselmo sobre la verdad</t>
-  </si>
-  <si>
-    <t>La teoría de la verdad de Anselmo de Canterbury</t>
-  </si>
-  <si>
-    <t>Universidad Pedagógica Nacional</t>
-  </si>
-  <si>
-    <t>Filosofía de la música en san Agustín: el papel de la práctica musical en el acercamiento a realidades inmateriales</t>
-  </si>
-  <si>
-    <t>COLCIENCIAS/Universidad Nacional de Colombia</t>
-  </si>
-  <si>
-    <t>El Arte luliano y la recepción medieval de los Tópicos de Aristóteles</t>
-  </si>
-  <si>
-    <t>Univrsidad Autónoma Metropolitana (México DF)</t>
-  </si>
-  <si>
-    <t>El papel de la demostración en el pensamiento político de Marsilio de Padua</t>
-  </si>
-  <si>
-    <t>Universidad del Quindío</t>
-  </si>
-  <si>
-    <t>Coordinador: Filosofías ambientalistas y animalistas</t>
-  </si>
-  <si>
-    <t>Horizonte para una ética ambiental</t>
-  </si>
-  <si>
-    <t>Enredos Telúricos</t>
-  </si>
-  <si>
-    <t>Universidad Nacional de Colombia, Sede Manizales</t>
-  </si>
-  <si>
-    <t>La aspiración ética ricœuriana y la solidaridad social y ambiental</t>
-  </si>
-  <si>
-    <t>EL FUTURO DEL AMBIENTALISMO: ENTRE EL PRINCIPIO DE LA LEY DE MURPHY Y EL MITO DE CASANDRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA PHRÓNESIS EN LOS ANIMALES </t>
-  </si>
-  <si>
-    <t>Coordinador: Etica evolucionista</t>
-  </si>
-  <si>
-    <t>Universidad Nacional, Sede Bogotá</t>
-  </si>
-  <si>
-    <t>Socavando el Constructivismo Evaluativo</t>
-  </si>
-  <si>
-    <t>Florida State University</t>
-  </si>
-  <si>
-    <t>"Debunking Has Not Been Debunked"</t>
-  </si>
-  <si>
-    <t>¿Puede el argumento evolutivo desacreditador contra el ateísmo naturalista demostrar la falsedad del dilema darwinista contra el realismo normativo?</t>
-  </si>
-  <si>
-    <t>Facultad de ciencias Humanas, Universidad Autónoma de Colombia</t>
-  </si>
-  <si>
-    <t>Sobre el vacío explicativo en la estrategia de desacreditación de la moral de Richard Joyce</t>
-  </si>
-  <si>
-    <t>Departamento de Filosofía, Universidad Nacional de Colombia</t>
-  </si>
-  <si>
-    <t>Coordinador: Simposio sobre pensamiento colombiano</t>
-  </si>
-  <si>
-    <t>Universidad Santo Tomás; Universidad del Norte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Una densa trama de bagatelas. Una reflexión sobre la obra ensayística de Hernando Téllez </t>
-  </si>
-  <si>
-    <t>Libertad de imprenta: un desafío para el pensamiento liberal colombiano del siglo XIX</t>
-  </si>
-  <si>
-    <t>Pontificia Universidad Javeriana</t>
-  </si>
-  <si>
-    <t>Cómo leer a Nicolás Gómez Dávila: claves para interpretar la filosofía de Textos I.</t>
-  </si>
-  <si>
-    <t>Universidad Colegio Mayor de Nuestra Señora del Rosario</t>
-  </si>
-  <si>
-    <t>Balance crítico de la filosofía política en Colombia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rafael Carrillo Filosofo- Educador </t>
-  </si>
-  <si>
-    <t>Universidad del Atlántico</t>
-  </si>
-  <si>
-    <t>La filosofía como "disciplina escolar" en Colombia. Siglos XVII a XX: una hipótesis</t>
-  </si>
-  <si>
-    <t>Tras la justicia en la filosofía política actual en Colombia</t>
-  </si>
-  <si>
-    <t>Universidad Santo Tomás</t>
-  </si>
-  <si>
-    <t>En todo reaccionario Platón resucita:
-trazos para un retrato de Nicolás Gómez Dávila como pensador reaccionario</t>
-  </si>
-  <si>
-    <t>Escritos de juventud de Danilo Cruz Vélez</t>
-  </si>
-  <si>
-    <t>Sobre la publicación de las Obras completas de Danilo Cruz Vélez</t>
-  </si>
-  <si>
-    <t>Coordinador: Subjetivación y experimentación estética</t>
-  </si>
-  <si>
-    <t>Universidad del Rosario Miembro de la SCF</t>
-  </si>
-  <si>
-    <t>Ética, cuidado y duelo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estética de la existencia y política en Michel Foucault. </t>
-  </si>
-  <si>
-    <t>Topologías del pensamiento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biopolítica y epigenética: la impronta biológica </t>
-  </si>
-  <si>
-    <t>Universidad de Paris 8</t>
-  </si>
-  <si>
-    <t>Del Arte Político a la estética disensual: el camino del “inventor-artista”</t>
-  </si>
-  <si>
-    <t>El decir veraz y la alteración de la vida: discurso, cuerpo, afectos.</t>
-  </si>
-  <si>
-    <t>Desde la imagen, el sonido y el fragmento: pensar lo impensado de la cotidianidad</t>
-  </si>
-  <si>
-    <t>Universidad Distrital Franciso José de Caldas</t>
-  </si>
-  <si>
-    <t>Critica, ficción y experimentación. La cuestión de la libertad en Foucault.</t>
-  </si>
-  <si>
-    <t>Coordinador: Emociones y razón práctica</t>
-  </si>
-  <si>
-    <t>Emoción y pensamiento: el caso de la sorpresa</t>
-  </si>
-  <si>
-    <t>La ética de la apariencia y la posibilidad de una sociedad justa: una propuesta de inspiración humeana</t>
-  </si>
-  <si>
-    <t>Afectividad y política. Reflexiones sobre el Gorgias de Platón</t>
-  </si>
-  <si>
-    <t>Sensibilidad moral e inclusión del otro</t>
-  </si>
-  <si>
-    <t>Valor moral, casos marginales y percepciones corporales</t>
-  </si>
-  <si>
-    <t>El papel de la racionalidad en el amor y la moralidad. Contra el conativismo.</t>
-  </si>
-  <si>
-    <t>Universidad Jorge Tadeo Lozano</t>
-  </si>
-  <si>
-    <t>Coordinador: Arte y educación</t>
-  </si>
-  <si>
-    <t>Profesor Asociado, Departamento de Humanidades, Universidad Jorge Tadeo Lozano</t>
-  </si>
-  <si>
-    <t>Cuerpo y pregunta: Experiencias de formación para la ciudadanía a partir de un enseñar como preguntar</t>
-  </si>
-  <si>
-    <t>Profesor titular, Universidad Jorge Tadeo Lozano</t>
-  </si>
-  <si>
-    <t>De los aportes de la educación artística al fortalecimiento del espíritu crítico</t>
-  </si>
-  <si>
-    <t>Profesora titular, Facultad de Artes y Diseño, Universidad Jorge Tadeo Lozano</t>
-  </si>
-  <si>
-    <t>Educándonos con y desde la fotografía</t>
-  </si>
-  <si>
-    <t>Profesor asociado, Departamento de Humanidades, Universidad Jorge Tadeo Lozano/Asesor Viceministerio de Educación Superior, Ministerio de Educación Nacional</t>
-  </si>
-  <si>
-    <t>Ciencia vs. arte: Un dualismo derivado de ciertas prácticas educativas</t>
-  </si>
-  <si>
-    <t>Departamento de Humanidades, Universidad Jorge Tadeo Lozano</t>
-  </si>
-  <si>
-    <t>Maneras de entender el arte en la educación</t>
-  </si>
-  <si>
-    <t>Palabrerío y empatía. SobreMemoria por correspondenciade Emma Reyes</t>
-  </si>
-  <si>
-    <t>Universidad Eafit, Universidad de Antioquia</t>
-  </si>
-  <si>
-    <t>Coordinador: Lenguaje, Retórica y Argumentación</t>
-  </si>
-  <si>
-    <t>Docente Universidad Javeriana</t>
-  </si>
-  <si>
-    <t>La cartografía del lenguaje a partir de la argumentación como tríptico</t>
-  </si>
-  <si>
-    <t>Docente Universidad de Antioquia</t>
-  </si>
-  <si>
-    <t>Esclavitud, ciudadanía y recursos retóricos en Aristóteles</t>
-  </si>
-  <si>
-    <t>Docente Universidad de Bogotá Jorge Tadeo Lozano</t>
-  </si>
-  <si>
-    <t>La unidad de las virtudes argumentativas</t>
-  </si>
-  <si>
-    <t>Docente Universdiad Eafit</t>
-  </si>
-  <si>
-    <t>Estructura de la argumentación práctica</t>
-  </si>
-  <si>
-    <t>Departamento de altos estudios fiscalía general de la nación</t>
-  </si>
-  <si>
-    <t>El contextualismo argumentativo: Una perspectiva centrada en el agente</t>
-  </si>
-  <si>
-    <t>Docente Universidad Eafit</t>
-  </si>
-  <si>
-    <t>La re-descripción retórica de las acciones</t>
-  </si>
-  <si>
-    <t>Docente Universidad del Valle</t>
-  </si>
-  <si>
-    <t>Normas éticas y valores religiosos (Los argumentos en la formación  del criterio moral)</t>
-  </si>
-  <si>
-    <t>Coordinador de Investigación, Centro de Estudios de Argumentación y Razonamiento. Universidad Diego Portales.</t>
-  </si>
-  <si>
-    <t>El engaño generalizado: la preferencia por prevaricar analizada argumentativamente</t>
-  </si>
-  <si>
-    <t>Professor University of Windsor</t>
-  </si>
-  <si>
-    <t>Narratives and the Concept of Argument</t>
-  </si>
-  <si>
-    <t>Docente Universidad de Cartagena</t>
-  </si>
-  <si>
-    <t>Ciudadanía retórica y enseñanza de la argumentación</t>
-  </si>
-  <si>
-    <t>Docente Universidad Nacional Autónoma de México</t>
-  </si>
-  <si>
-    <t>El discurso retórico en los espacios democráticos</t>
-  </si>
-  <si>
-    <t>Coordinador: VI SIMPOSIO COLOMBIANO DE FILOSOFÍA Y PSIQUIATRÍA: Enfoques fenomenológicos (1)</t>
-  </si>
-  <si>
-    <t>Asocición Colombiana de Psiquiatría</t>
-  </si>
-  <si>
-    <t>Variantes de hiperreflexividad en el Trastorno Obsesivo y en las Psicosis</t>
-  </si>
-  <si>
-    <t>Universidad El Bosque</t>
-  </si>
-  <si>
-    <t>¿Apatheia, Ataraxia, Anhedonia? Distinciones desde el punto de vista fenomenológico</t>
-  </si>
-  <si>
-    <t>Constituyendo el sentido de anormalidad. De la extrañeza cotidiana a la experiencia patológica</t>
-  </si>
-  <si>
-    <t>Aproximación a una terapia corpo-cinética: recuperación del sentido cinestético</t>
-  </si>
-  <si>
-    <t>sidad Nacional - Doctorado en Filosofía</t>
-  </si>
-  <si>
-    <t>Consideraciones sobre la intersubjetividad en la Anorexia: Rupturas intersubjetivas a partir de la forma en que el cuerpo se siente a sí mismo</t>
-  </si>
-  <si>
-    <t>El sentido de propiedad, la unidad de la consciencia e implicaciones psicopatológicas</t>
-  </si>
-  <si>
-    <t>Reflexión sobre el sentido de agencia en Gallagher: el problema de la causalidad y sus límites en la psiquiatría</t>
-  </si>
-  <si>
-    <t>Indagaciones fenomenológicas por el papel de los otros en la co-constitución de mundo primordial: Aportes al autismo y depresión infantil</t>
-  </si>
-  <si>
-    <t>Universidad Javeriana - Varios</t>
-  </si>
-  <si>
-    <t>El self Corporal y la ínsula</t>
-  </si>
-  <si>
-    <t>Coordinador: Filosofía del performance y su contemporaneidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La corporeidad del lenguaje: Palabra y acción. </t>
-  </si>
-  <si>
-    <t>Universdad de Los Andes</t>
-  </si>
-  <si>
-    <t>Un artista de hambre</t>
-  </si>
-  <si>
-    <t>La pregunta por el modo de ser de la obra de arte performática</t>
-  </si>
-  <si>
-    <t>Reflexión histórica sobre la con-temporaneidad de filosofía y performance</t>
-  </si>
-  <si>
-    <t>Universidad del Valle</t>
-  </si>
-  <si>
-    <t>Coordinador: Lenguaje y comprensión</t>
-  </si>
-  <si>
-    <t>Sobre la intencionalidad y el conocimiento en Duns Scotus</t>
-  </si>
-  <si>
-    <t>Magíster en Filosofía Universidad del Valle</t>
-  </si>
-  <si>
-    <t>La representación como el fundamento metafísico de la época moderna.</t>
-  </si>
-  <si>
-    <t>Pragmaticismo, acción, hábito e interpretante último</t>
-  </si>
-  <si>
-    <t>Aproximación a la relación lenguaje y comprensión desde filosofía hermenéutica de Gadamer</t>
-  </si>
-  <si>
-    <t>La Lengua española como medio de comprensión filosófica</t>
-  </si>
-  <si>
-    <t>UNIVESRIDAD DE CARTAGENA</t>
-  </si>
-  <si>
-    <t>Coordinador: FILOSOFÍA Y EDUCACIÓN PARA LA PAZ</t>
-  </si>
-  <si>
-    <t>UNIVERSIDAD DE CARTAGENA</t>
-  </si>
-  <si>
-    <t>EDUCACIÓN PARA LA MEMORIA Y EL RECONOCIMENTO SOCIAL</t>
-  </si>
-  <si>
-    <t>UNIVERSIDAD TECNOLÓGICA DE BOLÍVAR</t>
-  </si>
-  <si>
-    <t>EDUCAR EN EMOCIONES PARA LA CIUDADANÍA DEMOCRÁTICA</t>
-  </si>
-  <si>
-    <t>FILOSOFÍA Y PAZ</t>
-  </si>
-  <si>
-    <t>CONFLICTO, PAZ IMPERFECTA Y EDUCACIÓN</t>
-  </si>
-  <si>
-    <t>Universidad del Rosario; Universidad Javeriana; Universidad Nacional</t>
-  </si>
-  <si>
-    <t>Coordinador: Filosofía, ciencia y religión</t>
-  </si>
-  <si>
-    <t>Martin-Luther-Universität Halle-Wittenberg</t>
-  </si>
-  <si>
-    <t>Incarnation and Faith in an Evolutionary Framework</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universidad Javeriana </t>
-  </si>
-  <si>
-    <t>La coherencia en el marco de algunas discusiones sobre la racionalidad de la creencia religiosa</t>
-  </si>
-  <si>
-    <t>Construcción social y el carácter creado de la persona humana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universidad Santo Tomás </t>
-  </si>
-  <si>
-    <t>En torno al problema fe-razón: la conciencia-en-relación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universidad del Rosario </t>
-  </si>
-  <si>
-    <t>Aplicabilidad del concepto de emergencia en la filosofía budista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universidad Nacional </t>
-  </si>
-  <si>
-    <t>Mística y metafísica, una aproximación nietzscheana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universidad del Valle </t>
-  </si>
-  <si>
-    <t>La filosofía como puente entre la ciencia y la religión</t>
-  </si>
-  <si>
-    <t>"En el principio fue la acción": Aporías de un mito moderno sobre el origen del sentido</t>
-  </si>
-  <si>
-    <t>Kepler: el papel de la trinidad en el origen de la ciencia moderna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universidad Externado de Colombia </t>
-  </si>
-  <si>
-    <t>ORIGEN RELIGIOSO DEL CONCEPTO DE AUTONOMÍA</t>
-  </si>
-  <si>
-    <t>Programa Filosofía Universidad Externado</t>
-  </si>
-  <si>
-    <t>Coordinador: Emociones, Voluntad y Racionalidad.</t>
-  </si>
-  <si>
-    <t>Programa de Filosofía Universidad Externado</t>
-  </si>
-  <si>
-    <t>Emociones Morales Dilemas e Infortunio</t>
-  </si>
-  <si>
-    <t>Programa de Filosifía Universidad Externado</t>
-  </si>
-  <si>
-    <t>¿ Que es el Comportamiento Automático ?</t>
-  </si>
-  <si>
-    <t>Universidad San buenaventura</t>
-  </si>
-  <si>
-    <t>El Deseo Como Voluntad en Gilles Deleuze</t>
-  </si>
-  <si>
-    <t>universidad Autónoma</t>
-  </si>
-  <si>
-    <t>Empatía y moralidad.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universdiad Autónoma </t>
-  </si>
-  <si>
-    <t>Lealtad ampliada, sentimientos morales y derechos animales</t>
-  </si>
-  <si>
-    <t>Universidad de Antioquia</t>
-  </si>
-  <si>
-    <t>La subjetividad o la estética de lo inacabable</t>
-  </si>
-  <si>
-    <t>UNIVERSIDAD NACIONAL DE COLOMBIA</t>
-  </si>
-  <si>
-    <t>Thomas Hobbes,pasiones, razones y filosofia moral</t>
   </si>
   <si>
     <t xml:space="preserve">UNIVERSIDAD NACIONAL DE CÓRDOBA (ARGENTINA) Ilze Petroni, es investigadora de arte contemporáneo. Doctora en Artes por la Facultad de Artes y Licenciada en Comunicación Social con Orientación en Investigación y Planeamiento en Comunicación Social por la Escuela de Ciencias de la Información de la Universidad Nacional de Córdoba (UNC). Ha trabajado como ayudante alumno y profesora adscripta en las cátedras de Movimientos Estéticos y Cultura Argentina; Seminario de Cultura Popular y Cultura Masiva y Seminario de Problemáticas de la Sociedad Contemporánea en la Escuela de Ciencias de la Información (UNC). Fue becaria de la Secretaría de Extensión Universitaria (UNC) para ejecutar su proyecto sobre fotografía y estrategias de inclusión social en la Comuna en Anisacate (2004-2005). Fue integrante del equipo de investigación dedicado a la problemática del cine argentino actual dirigido por la Mgter. María Paulinelli, con quien publicó Cine y Dictadura (2006); Poéticas en el cine argentino: 1995-2005 (2005); Cine e Imaginario. Algunos filmes de fin de siglo (2000) y participó en Cine Documental, Memoria y Derechos Humanos (Buenos Aires, 2007). Entre 2009 y 2013 fue miembro del equipo de investigación “Recuperación y análisis de información de archivo fílmico documental Canal 10 y de patrimonio visual y audiovisual de Córdoba” dirigido por la Dra. Silvia Romano y radicado en el Área Historia del Centro de Investigaciones “María Saleme de Bournichón” de la FFyH (UNC) con el subproyecto “Historia de vida de José Anselmo Pérez y conservación y preservación de su archivo fotográfico” con quien publicó La 'valija verde': historia de vida, obra fotográfica y fragmentos de la Colección Anselmo Pérez (2013). Ha participado de diversos encuentros académicos y científicos a nivel nacional e internacional. Fue becaria de postgrado Tipo I y Tipo II del Consejo Nacional de Investigaciones Científicas y Técnicas (CONICET) entre 2008 y 2012. Desde 2009 y hasta noviembre de 2014 fue coordinadora general –junto a Jorge Sepúlveda T.- de la gestión autónoma Curatoría Forense con la que brindó conferencias, conversatorios, seminarios, cursos y talleres sobre arte contemporáneo, gestión autónoma de arte, sistema, política, teoría y crítica de arte contemporáneo en Argentina, Brasil, Colombia, Chile, Ecuador, Francia, Italia, México, Perú, Uruguay y Venezuela.  En abril de 2012 funda y coordina la Red de Gestiones Autónomas de Arte Contemporáneo – Latinoamérica y, en 2013, crea la Editorial Curatoría Forense con la que edita el Directorio de Gestiones Autónomas de Arte Contemporáneo – Latinoamérica (2014) y Encuentro de Gestiones Autónomas de Artes Visuales Contemporáneas :: Córdoba 2011 (2013). 
@@ -668,19 +28,19 @@
 </t>
   </si>
   <si>
-    <t>Coordinador: FILOSOFÍA DEL ARTE Y ESTÉTICA: Repensando la Educación Estética en América Latina y el Caribe</t>
+    <t>Resignificar la estética: Prácticas de gestión autónoma de arte en y desde américa latina</t>
   </si>
   <si>
     <t>UNIVERSIDAD DE LA PLATA-ARGENTINA. Gerardo Guzmán</t>
   </si>
   <si>
-    <t>Resignificar la estética: Prácticas de gestión autónoma de arte en y desde américa latina</t>
+    <t>La Alografía de la Recepción. Intérpretes y Públicos</t>
   </si>
   <si>
     <t>Antonio Gritón es Director del Centro Cultural San Rafael, filósofo, artista y pedagogo autor de varios libros entre los que destacamos la colección Artes Visuales, editada en tres volúmenes. Estuvo vinculado a los lugares de vanguardias del arte en ciudad de México como la Quiñonera. Ha sido invitado como ponente a varios países de América Latina.</t>
   </si>
   <si>
-    <t>La Alografía de la Recepción. Intérpretes y Públicos</t>
+    <t xml:space="preserve">La educación artística en América Latina. Historia de una experiencia. </t>
   </si>
   <si>
     <t xml:space="preserve">UNIVERSIDAD JORGE TADEO LOZANO. Ricardo Malagón estudia el Programa de Doctorado en Artes. Facultad de Artes Universidad de Antioquía (candidato a Doctor). 
@@ -692,19 +52,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">La educación artística en América Latina. Historia de una experiencia. </t>
+    <t>La Escuela de Bellas Artes y la creación de un imaginario del academicismo en Colombia".</t>
   </si>
   <si>
     <t xml:space="preserve">Rodolfo Wenger Calvo es Docente-Investigador (Profesor Asociado) del Área de Estética y Filosofía del Arte del Programa de Filosofía de la Facultad de Ciencias Humanas  de la Universidad del Atlántico. Doctorando en Filosofía de la Escuela Internacional de Doctorado de la UNED, Madrid- España. Máster en Filosofía Teórica y Práctica –Especialidad Historia de la Filosofía y Pensamiento Contemporáneo de la UNED. Magíster en Análisis de Problemáticas Contemporáneas de la Universidad Externado de Colombia y el IAED, bajo el auspicios del Instituto de Estudios Políticos de París. Ensayista y conferencista sobre diversos temas relacionados con la estética, y en particular, con las posibilidades de sinergia entre el mundo de la imagen, el arte y el pensamiento filosófico. Autor del libro: Arte y conocimiento. Ensayos de Filosofía del arte, 2011, Barranquilla, Universidad del Atlántico y varios artículos publicados en revistas especializadas. Miembro del Grupo de Investigación AMAUTA de la Facultad de Ciencias Humanas de la Universidad del Atlántico y de la International Association for Aesthetics (IAA). </t>
   </si>
   <si>
-    <t>La Escuela de Bellas Artes y la creación de un imaginario del academicismo en Colombia".</t>
+    <t>Los presupuestos educativos y políticos de la «emancipación estética» en la filosofía de J. Rancière</t>
   </si>
   <si>
     <t>UNIVERSIDAD JORGE TADEO LOZANO. Elkin Rubiano es Sociólogo de la Universidad Nacional de Colombia, magister en comunicación de la Pontificia Universidad Javeriana y especialista en diseño urbano de la Universidad Jorge Tadeo Lozano. Sus áreas de trabajo se concentran en la teoría estética, la crítica cultural y las sociologías urbana y del arte. Pertenece al grupo de investigación Reflexión y creación artísticas contemporáneas. Actualmente es profesor asociado de tiempo completo de la Universidad Jorge Tadeo Lozano en la maestría en Estética e Historia del arte y adelanta estudios de doctorado en Historia del arte en Colombia y Latinoamérica en la Universidad Nacional de Colombia. Sus textos más relevantes se pueden consultar en:  http://utadeo.academia.edu/ElkinRubiano</t>
   </si>
   <si>
-    <t>Los presupuestos educativos y políticos de la «emancipación estética» en la filosofía de J. Rancière</t>
+    <t>El juego como categoría estética: entre la formalidad teórica y las posibilidades críticas</t>
   </si>
   <si>
     <t xml:space="preserve">UNIVERSIDAD DE MANIZALES. María Cristina Sanchez es candidata en el Doctorado en Ciencias Sociales. Niñez y Juventud. Universidad de Manizales y CINDE. es Investigadora del Euro-Mediterranean University Institute (EMUI)
@@ -722,7 +82,7 @@
 </t>
   </si>
   <si>
-    <t>El juego como categoría estética: entre la formalidad teórica y las posibilidades críticas</t>
+    <t>Prácticas de la jovialidad: indagaciones por las políticas estéticas</t>
   </si>
   <si>
     <t xml:space="preserve">UNIVERSIDAD DE LA PLATA. Magíster en Teoría y Estética de las Artes. UNLP. Profesora y Licenciada en Historia de las Artes Plásticas, Facultad de Bellas Artes, UNLP
@@ -731,7 +91,7 @@
 </t>
   </si>
   <si>
-    <t>Prácticas de la jovialidad: indagaciones por las políticas estéticas</t>
+    <t>Campo del arte y estética en la formación artística en Argentina.</t>
   </si>
   <si>
     <t xml:space="preserve">UNIVERSIDAD NACIONAL DE COLOMBIA. Ricardo Arcos-Palma es docente investigador asociado en dedicación exclusiva de la Facultad de Artes de la Universidad Nacional de Colombia. PhD en Artes y Ciencias del Arte mención filosofía del arte. Magister en estética y filosofía del arte por la Universidad de la Sorbona. Es miembro de la SCF. Dentro de sus principales publicaciones están: 
@@ -757,28 +117,130 @@
 </t>
   </si>
   <si>
-    <t>Campo del arte y estética en la formación artística en Argentina.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universidad Pedagógica Nacional y Universidad del Valle </t>
-  </si>
-  <si>
-    <t>Coordinador: Fenomenología y Metafísica.</t>
+    <t>Una propuesta para disolver los dilemas del conocimiento basado en testimonio</t>
+  </si>
+  <si>
+    <t>Fiscalía General de la Nación</t>
+  </si>
+  <si>
+    <t>Limitaciones del giro naturalista: La epistemología social como un caso de imperialismo científico</t>
+  </si>
+  <si>
+    <t>Universidad de los Andes</t>
+  </si>
+  <si>
+    <t>El rol epistémico de la reputación en la ciencia</t>
+  </si>
+  <si>
+    <t>Trasfondo, generación terreno común y normatividad: una propuesta</t>
+  </si>
+  <si>
+    <t>Universidad Jorge Tadeo Lozano</t>
+  </si>
+  <si>
+    <t>Razones para actuar y razones para creer: el papel de la normatividad práctica en la epistemología del testimonio</t>
+  </si>
+  <si>
+    <t>EDUCACIÓN PARA LA MEMORIA Y EL RECONOCIMENTO SOCIAL</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD DE CARTAGENA</t>
+  </si>
+  <si>
+    <t>EDUCAR EN EMOCIONES PARA LA CIUDADANÍA DEMOCRÁTICA</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD TECNOLÓGICA DE BOLÍVAR</t>
+  </si>
+  <si>
+    <t>FILOSOFÍA Y PAZ</t>
+  </si>
+  <si>
+    <t>CONFLICTO, PAZ IMPERFECTA Y EDUCACIÓN</t>
+  </si>
+  <si>
+    <t>La cartografía del lenguaje a partir de la argumentación como tríptico</t>
+  </si>
+  <si>
+    <t>Docente Universidad Javeriana</t>
+  </si>
+  <si>
+    <t>Esclavitud, ciudadanía y recursos retóricos en Aristóteles</t>
+  </si>
+  <si>
+    <t>Docente Universidad de Antioquia</t>
+  </si>
+  <si>
+    <t>La unidad de las virtudes argumentativas</t>
+  </si>
+  <si>
+    <t>Docente Universidad de Bogotá Jorge Tadeo Lozano</t>
+  </si>
+  <si>
+    <t>Estructura de la argumentación práctica</t>
+  </si>
+  <si>
+    <t>Docente Universdiad Eafit</t>
+  </si>
+  <si>
+    <t>El contextualismo argumentativo: Una perspectiva centrada en el agente</t>
+  </si>
+  <si>
+    <t>Departamento de altos estudios fiscalía general de la nación</t>
+  </si>
+  <si>
+    <t>La re-descripción retórica de las acciones</t>
+  </si>
+  <si>
+    <t>Docente Universidad Eafit</t>
+  </si>
+  <si>
+    <t>Normas éticas y valores religiosos (Los argumentos en la formación  del criterio moral)</t>
+  </si>
+  <si>
+    <t>Docente Universidad del Valle</t>
+  </si>
+  <si>
+    <t>El engaño generalizado: la preferencia por prevaricar analizada argumentativamente</t>
+  </si>
+  <si>
+    <t>Coordinador de Investigación, Centro de Estudios de Argumentación y Razonamiento. Universidad Diego Portales.</t>
+  </si>
+  <si>
+    <t>Narratives and the Concept of Argument</t>
+  </si>
+  <si>
+    <t>Professor University of Windsor</t>
+  </si>
+  <si>
+    <t>Ciudadanía retórica y enseñanza de la argumentación</t>
+  </si>
+  <si>
+    <t>Docente Universidad de Cartagena</t>
+  </si>
+  <si>
+    <t>El discurso retórico en los espacios democráticos</t>
+  </si>
+  <si>
+    <t>Docente Universidad Nacional Autónoma de México</t>
+  </si>
+  <si>
+    <t>La facticidad como problema metafísico.</t>
   </si>
   <si>
     <t>Academia Nacional de Ciencias de Buenos Aires</t>
   </si>
   <si>
-    <t>La facticidad como problema metafísico.</t>
-  </si>
-  <si>
     <t>Dios como idea y experiencia de Dios en la fenomenología de Husserl</t>
   </si>
   <si>
+    <t>Universidad del Valle</t>
+  </si>
+  <si>
+    <t>Fenomenología y Metafísica. ¿Un diálogo ineludible?</t>
+  </si>
+  <si>
     <t>Universidad Tecnológica de Pereira</t>
-  </si>
-  <si>
-    <t>Fenomenología y Metafísica. ¿Un diálogo ineludible?</t>
   </si>
   <si>
     <t xml:space="preserve">Dación y saturación
@@ -786,65 +248,149 @@
 </t>
   </si>
   <si>
+    <t>Universidad Pedagógica Nacional</t>
+  </si>
+  <si>
+    <t>La estructura metafísica de la carne: su expresión en la pintura</t>
+  </si>
+  <si>
     <t xml:space="preserve">Universidad Nacional 
 de San Martín
 </t>
   </si>
   <si>
-    <t>La estructura metafísica de la carne: su expresión en la pintura</t>
-  </si>
-  <si>
-    <t>Universidad Eafit</t>
-  </si>
-  <si>
     <t xml:space="preserve">Merleau-Ponty: El cuerpo como ser sexuado, disertación sobre una 
 metafísica invertida
 </t>
   </si>
   <si>
+    <t>Universidad Eafit</t>
+  </si>
+  <si>
     <t>La dispersión: una posible lectura fenomenológica, en clave a-subjetiva, de Walter Benjamin.</t>
   </si>
   <si>
-    <t>Universidad Nacional de Colombia, Universidad de los Andes</t>
-  </si>
-  <si>
-    <t>Coordinador: Sobre los vicios y las virtudes</t>
-  </si>
-  <si>
-    <t>Universidad Alberto Hurtado (Santiago de Chile)</t>
-  </si>
-  <si>
-    <t>Filosofía antigua y la educación: Platón y la importancia de la educación en la formación del gobernante</t>
-  </si>
-  <si>
-    <t>Universidad Nacional de Colombia (Bogotá)</t>
-  </si>
-  <si>
-    <t>Las “virtudes” del pirrónico</t>
-  </si>
-  <si>
-    <t>Universidad de los Andes (Bogotá)</t>
-  </si>
-  <si>
-    <t>Entre el pluralismo moral y el monismo psicoló́gico: la diversidad de la virtud en Aristóteles</t>
-  </si>
-  <si>
-    <t>Nietzsche y los griegos. En torno a la valoración ético-estética del carácter</t>
-  </si>
-  <si>
-    <t>Universidad Autónoma de Colombia (Bogotá)</t>
-  </si>
-  <si>
-    <t>La tradición peripatética de los catálogos de vicios y virtudes</t>
-  </si>
-  <si>
-    <t>Universidad Autónoma Metropolitana (México DF)</t>
-  </si>
-  <si>
-    <t>Las pasiones del virtuoso según Tomás de Aquino</t>
-  </si>
-  <si>
-    <t>Coordinador: Explicación, mente y cognición</t>
+    <t>Ética, cuidado y duelo</t>
+  </si>
+  <si>
+    <t>Universidad del Rosario Miembro de la SCF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estética de la existencia y política en Michel Foucault. </t>
+  </si>
+  <si>
+    <t>Universidad Javeriana</t>
+  </si>
+  <si>
+    <t>Topologías del pensamiento</t>
+  </si>
+  <si>
+    <t>Universidad del Rosario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biopolítica y epigenética: la impronta biológica </t>
+  </si>
+  <si>
+    <t>Del Arte Político a la estética disensual: el camino del “inventor-artista”</t>
+  </si>
+  <si>
+    <t>Universidad de Paris 8</t>
+  </si>
+  <si>
+    <t>El decir veraz y la alteración de la vida: discurso, cuerpo, afectos.</t>
+  </si>
+  <si>
+    <t>Desde la imagen, el sonido y el fragmento: pensar lo impensado de la cotidianidad</t>
+  </si>
+  <si>
+    <t>Critica, ficción y experimentación. La cuestión de la libertad en Foucault.</t>
+  </si>
+  <si>
+    <t>Universidad Distrital Franciso José de Caldas</t>
+  </si>
+  <si>
+    <t>Incarnation and Faith in an Evolutionary Framework</t>
+  </si>
+  <si>
+    <t>Martin-Luther-Universität Halle-Wittenberg</t>
+  </si>
+  <si>
+    <t>La coherencia en el marco de algunas discusiones sobre la racionalidad de la creencia religiosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universidad Javeriana </t>
+  </si>
+  <si>
+    <t>Construcción social y el carácter creado de la persona humana</t>
+  </si>
+  <si>
+    <t>En torno al problema fe-razón: la conciencia-en-relación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universidad Santo Tomás </t>
+  </si>
+  <si>
+    <t>Aplicabilidad del concepto de emergencia en la filosofía budista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universidad del Rosario </t>
+  </si>
+  <si>
+    <t>Mística y metafísica, una aproximación nietzscheana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universidad Nacional </t>
+  </si>
+  <si>
+    <t>La filosofía como puente entre la ciencia y la religión</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universidad del Valle </t>
+  </si>
+  <si>
+    <t>"En el principio fue la acción": Aporías de un mito moderno sobre el origen del sentido</t>
+  </si>
+  <si>
+    <t>Kepler: el papel de la trinidad en el origen de la ciencia moderna</t>
+  </si>
+  <si>
+    <t>ORIGEN RELIGIOSO DEL CONCEPTO DE AUTONOMÍA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "El perdón interpersonal en el contexto de la justicia transicional". </t>
+  </si>
+  <si>
+    <t>universidad del Rosario</t>
+  </si>
+  <si>
+    <t>¿Mutar de guerrillero a ciudadano y de ciudadano a político? Solo naturalizando del daño.</t>
+  </si>
+  <si>
+    <t>Universidad de Los Andes</t>
+  </si>
+  <si>
+    <t>La retórica cínica de los Nule y los sentimientos morales</t>
+  </si>
+  <si>
+    <t>El carrusel de la contratación como una patente de mala fe</t>
+  </si>
+  <si>
+    <t>Universidad del Bosque</t>
+  </si>
+  <si>
+    <t>Si de algo soy culpable, fue de haberme enamorado”, cuando la ‘galantería’ y la pasión disfrazan el daño.</t>
+  </si>
+  <si>
+    <t>Universidad Pedagógica</t>
+  </si>
+  <si>
+    <t>Cuando las palabras esconden el daño: Una lectura de Marvel Moreno</t>
+  </si>
+  <si>
+    <t>Universidad Nacional</t>
+  </si>
+  <si>
+    <t>Palabrerío y empatía. Sobre Memoria por correspondencia de Emma Reyes</t>
   </si>
   <si>
     <t>¿Puedo intentar levantar su brazo?</t>
@@ -853,6 +399,9 @@
     <t>El externalismo de la conciencia y la noción de constitución</t>
   </si>
   <si>
+    <t>Universidad Nacional de Colombia</t>
+  </si>
+  <si>
     <t>Esquemas sensioromotrices y cognición no situada</t>
   </si>
   <si>
@@ -889,10 +438,259 @@
     <t>La psicología evolucionista y la naturaleza humana</t>
   </si>
   <si>
-    <t>Universidad del Rosario, Universidad Santo Tomás, Universidad Pedagógica, Universidad Nacional</t>
-  </si>
-  <si>
-    <t>Coordinador: Enseñanza de la Filosofía</t>
+    <t xml:space="preserve">La corporeidad del lenguaje: Palabra y acción. </t>
+  </si>
+  <si>
+    <t>Universdad de Los Andes</t>
+  </si>
+  <si>
+    <t>Un artista de hambre</t>
+  </si>
+  <si>
+    <t>La pregunta por el modo de ser de la obra de arte performática</t>
+  </si>
+  <si>
+    <t>Reflexión histórica sobre la con-temporaneidad de filosofía y performance</t>
+  </si>
+  <si>
+    <t>Pontificia Universidad Javeriana</t>
+  </si>
+  <si>
+    <t>Emoción y pensamiento: el caso de la sorpresa</t>
+  </si>
+  <si>
+    <t>La ética de la apariencia y la posibilidad de una sociedad justa: una propuesta de inspiración humeana</t>
+  </si>
+  <si>
+    <t>Afectividad y política. Reflexiones sobre el Gorgias de Platón</t>
+  </si>
+  <si>
+    <t>Sensibilidad moral e inclusión del otro</t>
+  </si>
+  <si>
+    <t>Valor moral, casos marginales y percepciones corporales</t>
+  </si>
+  <si>
+    <t>El papel de la racionalidad en el amor y la moralidad. Contra el conativismo.</t>
+  </si>
+  <si>
+    <t>Palabrerío y empatía. SobreMemoria por correspondenciade Emma Reyes</t>
+  </si>
+  <si>
+    <t>Profesor Asociado, Departamento de Humanidades, Universidad Jorge Tadeo Lozano</t>
+  </si>
+  <si>
+    <t>Cuerpo y pregunta: Experiencias de formación para la ciudadanía a partir de un enseñar como preguntar</t>
+  </si>
+  <si>
+    <t>Profesor titular, Universidad Jorge Tadeo Lozano</t>
+  </si>
+  <si>
+    <t>De los aportes de la educación artística al fortalecimiento del espíritu crítico</t>
+  </si>
+  <si>
+    <t>Profesora titular, Facultad de Artes y Diseño, Universidad Jorge Tadeo Lozano</t>
+  </si>
+  <si>
+    <t>Educándonos con y desde la fotografía</t>
+  </si>
+  <si>
+    <t>Profesor asociado, Departamento de Humanidades, Universidad Jorge Tadeo Lozano/Asesor Viceministerio de Educación Superior, Ministerio de Educación Nacional</t>
+  </si>
+  <si>
+    <t>Ciencia vs. arte: Un dualismo derivado de ciertas prácticas educativas</t>
+  </si>
+  <si>
+    <t>Departamento de Humanidades, Universidad Jorge Tadeo Lozano</t>
+  </si>
+  <si>
+    <t>Maneras de entender el arte en la educación</t>
+  </si>
+  <si>
+    <t>Sobre la intencionalidad y el conocimiento en Duns Scotus</t>
+  </si>
+  <si>
+    <t>Magíster en Filosofía Universidad del Valle</t>
+  </si>
+  <si>
+    <t>La representación como el fundamento metafísico de la época moderna.</t>
+  </si>
+  <si>
+    <t>Pragmaticismo, acción, hábito e interpretante último</t>
+  </si>
+  <si>
+    <t>Aproximación a la relación lenguaje y comprensión desde filosofía hermenéutica de Gadamer</t>
+  </si>
+  <si>
+    <t>La Lengua española como medio de comprensión filosófica</t>
+  </si>
+  <si>
+    <t>Universidad Nacional de San Martín (Argentina)</t>
+  </si>
+  <si>
+    <t>La Naturaleza como el “otro lado del hombre”. Un análisis desde la lógica responsiva</t>
+  </si>
+  <si>
+    <t>Universidad del Norte</t>
+  </si>
+  <si>
+    <t>La carne y el rostro: Un diálogo entre Merleau-Ponty y Lévinas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universidad de Antioquia, Instituto de Filosofía </t>
+  </si>
+  <si>
+    <t>El tiempo: lo otro del espacio. Reflexiones en torno a la unidad y alteridad espacio-temporal en Chillida y Heidegger</t>
+  </si>
+  <si>
+    <t>Universidad de Antioquia, Intituto de Filosofía</t>
+  </si>
+  <si>
+    <t>Tiempo y discurso en Bernhard Waldenfels. Una perspectiva fenonemonógica de lo extraño</t>
+  </si>
+  <si>
+    <t>Facultad de Filosofía. Universidad Michoacana de San Nicolás de Hidalgo, Morelia (México)</t>
+  </si>
+  <si>
+    <t>Sentir, percibir, concebir. Aproximación histórico-fenomenológica, ontológica y política a la diferencia de los sexos y la actividad de pensar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instituto de Investigaciones Filosóficas Luis Villoro. Universidad Michoacana de San Nicolás de Hidalgo, Morelia (México) </t>
+  </si>
+  <si>
+    <t>La alteridad indígena: motivo y razón de la filosofía de Luis Villoro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universidad de Medellín </t>
+  </si>
+  <si>
+    <t>Límite, juicio y alteridad en Hegel</t>
+  </si>
+  <si>
+    <t>Universidad de Antioquia. Instituto de Filosofía</t>
+  </si>
+  <si>
+    <t>Alteridad, diferencia y perspectiva: el papel del otro y de lo otro en la filosofía hermenéutica</t>
+  </si>
+  <si>
+    <t>Florida State University</t>
+  </si>
+  <si>
+    <t>Socavando el Constructivismo Evaluativo</t>
+  </si>
+  <si>
+    <t>"Debunking Has Not Been Debunked"</t>
+  </si>
+  <si>
+    <t>Facultad de ciencias Humanas, Universidad Autónoma de Colombia</t>
+  </si>
+  <si>
+    <t>¿Puede el argumento evolutivo desacreditador contra el ateísmo naturalista demostrar la falsedad del dilema darwinista contra el realismo normativo?</t>
+  </si>
+  <si>
+    <t>Departamento de Filosofía, Universidad Nacional de Colombia</t>
+  </si>
+  <si>
+    <t>Sobre el vacío explicativo en la estrategia de desacreditación de la moral de Richard Joyce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La nueva política </t>
+  </si>
+  <si>
+    <t>Perdón y comprensión</t>
+  </si>
+  <si>
+    <t>Epistemología y política</t>
+  </si>
+  <si>
+    <t>La ciencia de la historia contra la ciencia del Estado (razones para omitir el uso de la palabra 'pos-moderno')</t>
+  </si>
+  <si>
+    <t>Recursos de verdad, recursos de sentido</t>
+  </si>
+  <si>
+    <t>Política del individuo</t>
+  </si>
+  <si>
+    <t>Asocición Colombiana de Psiquiatría</t>
+  </si>
+  <si>
+    <t>Variantes de hiperreflexividad en el Trastorno Obsesivo y en las Psicosis</t>
+  </si>
+  <si>
+    <t>Universidad El Bosque</t>
+  </si>
+  <si>
+    <t>¿Apatheia, Ataraxia, Anhedonia? Distinciones desde el punto de vista fenomenológico</t>
+  </si>
+  <si>
+    <t>Constituyendo el sentido de anormalidad. De la extrañeza cotidiana a la experiencia patológica</t>
+  </si>
+  <si>
+    <t>Aproximación a una terapia corpo-cinética: recuperación del sentido cinestético</t>
+  </si>
+  <si>
+    <t>sidad Nacional - Doctorado en Filosofía</t>
+  </si>
+  <si>
+    <t>Consideraciones sobre la intersubjetividad en la Anorexia: Rupturas intersubjetivas a partir de la forma en que el cuerpo se siente a sí mismo</t>
+  </si>
+  <si>
+    <t>El sentido de propiedad, la unidad de la consciencia e implicaciones psicopatológicas</t>
+  </si>
+  <si>
+    <t>Reflexión sobre el sentido de agencia en Gallagher: el problema de la causalidad y sus límites en la psiquiatría</t>
+  </si>
+  <si>
+    <t>Indagaciones fenomenológicas por el papel de los otros en la co-constitución de mundo primordial: Aportes al autismo y depresión infantil</t>
+  </si>
+  <si>
+    <t>Universidad Javeriana - Varios</t>
+  </si>
+  <si>
+    <t>El self Corporal y la ínsula</t>
+  </si>
+  <si>
+    <t>Universidad del Valle, Departamento de Filosofía</t>
+  </si>
+  <si>
+    <t>Pobreza, desarrollo y justicia: Un análisis desde el enfoque de la capacidad de Amartya Sen</t>
+  </si>
+  <si>
+    <t>Universidad de Antioquia, Instituto de Filosofía</t>
+  </si>
+  <si>
+    <t>Pobreza y propiedad en el joven Marx</t>
+  </si>
+  <si>
+    <t>Universidad Pontificia Bolivariana, sede Medellín, Grupo Territorio</t>
+  </si>
+  <si>
+    <t>Repensar nuestro habitar y relacionar con el entorno: ¿por qué y para qué alternativas AL desarrollo?</t>
+  </si>
+  <si>
+    <t>Universidad Nacional de Colombia Sede Manizales, Grupo de Investigación en Pensamiento Ambiental.</t>
+  </si>
+  <si>
+    <t>¿Para qué poetas en tiempos de Devastación?</t>
+  </si>
+  <si>
+    <t>Universidad Carlos III de Madrid, Departamento de Análisis Social.</t>
+  </si>
+  <si>
+    <t>Justicia Ambiental y Justicia Climática: el camino lento pero (esperemos) sin retorno hacia el Desarrollo Sostenible Justo (la Sostenibilidad Justa).</t>
+  </si>
+  <si>
+    <t>Universidad de Frankfurt, Instituto de Filosofía</t>
+  </si>
+  <si>
+    <t>Justicia y desarrollo sostenible</t>
+  </si>
+  <si>
+    <t>Universidad del Norte, Departamento de Filosofía y Humanidades</t>
+  </si>
+  <si>
+    <t>Justicia intergeneracional. Un abordaje de sus fundamentos teóricos.</t>
   </si>
   <si>
     <t>Investigador Titular del Instituto de Investigaciones Filosóficas de la Universidad Nacional Autónoma de México (UNAM)</t>
@@ -976,76 +774,61 @@
     <t>El Menón de Platón y los efectos de formación</t>
   </si>
   <si>
-    <t>Coordinador: Pobreza, desarrollo y justicia</t>
-  </si>
-  <si>
-    <t>Universidad del Valle, Departamento de Filosofía</t>
-  </si>
-  <si>
-    <t>Pobreza, desarrollo y justicia: Un análisis desde el enfoque de la capacidad de Amartya Sen</t>
-  </si>
-  <si>
-    <t>Universidad de Antioquia, Instituto de Filosofía</t>
-  </si>
-  <si>
-    <t>Pobreza y propiedad en el joven Marx</t>
-  </si>
-  <si>
-    <t>Universidad Pontificia Bolivariana, sede Medellín, Grupo Territorio</t>
-  </si>
-  <si>
-    <t>Repensar nuestro habitar y relacionar con el entorno: ¿por qué y para qué alternativas AL desarrollo?</t>
-  </si>
-  <si>
-    <t>Universidad Nacional de Colombia Sede Manizales, Grupo de Investigación en Pensamiento Ambiental.</t>
-  </si>
-  <si>
-    <t>¿Para qué poetas en tiempos de Devastación?</t>
-  </si>
-  <si>
-    <t>Universidad Carlos III de Madrid, Departamento de Análisis Social.</t>
-  </si>
-  <si>
-    <t>Justicia Ambiental y Justicia Climática: el camino lento pero (esperemos) sin retorno hacia el Desarrollo Sostenible Justo (la Sostenibilidad Justa).</t>
-  </si>
-  <si>
-    <t>Universidad de Frankfurt, Instituto de Filosofía</t>
-  </si>
-  <si>
-    <t>Justicia y desarrollo sostenible</t>
-  </si>
-  <si>
-    <t>Universidad del Norte, Departamento de Filosofía y Humanidades</t>
-  </si>
-  <si>
-    <t>Justicia intergeneracional. Un abordaje de sus fundamentos teóricos.</t>
-  </si>
-  <si>
-    <t>Coordinador: Epistemología Social: Testimonio, Intensionalidad Colectiva y la Estructura Social de la Ciencia</t>
-  </si>
-  <si>
-    <t>Fiscalía General de la Nación</t>
-  </si>
-  <si>
-    <t>Una propuesta para disolver los dilemas del conocimiento basado en testimonio</t>
-  </si>
-  <si>
-    <t>Limitaciones del giro naturalista: La epistemología social como un caso de imperialismo científico</t>
-  </si>
-  <si>
-    <t>El rol epistémico de la reputación en la ciencia</t>
-  </si>
-  <si>
-    <t>Trasfondo, generación terreno común y normatividad: una propuesta</t>
-  </si>
-  <si>
-    <t>Razones para actuar y razones para creer: el papel de la normatividad práctica en la epistemología del testimonio</t>
-  </si>
-  <si>
-    <t>U. El Bosque / U. Nacional</t>
-  </si>
-  <si>
-    <t>Coordinador: Filosofía de la Acción</t>
+    <t>Universidad Alberto Hurtado (Santiago de Chile)</t>
+  </si>
+  <si>
+    <t>Filosofía antigua y la educación: Platón y la importancia de la educación en la formación del gobernante</t>
+  </si>
+  <si>
+    <t>Universidad Nacional de Colombia (Bogotá)</t>
+  </si>
+  <si>
+    <t>Las “virtudes” del pirrónico</t>
+  </si>
+  <si>
+    <t>Universidad de los Andes (Bogotá)</t>
+  </si>
+  <si>
+    <t>Entre el pluralismo moral y el monismo psicoló́gico: la diversidad de la virtud en Aristóteles</t>
+  </si>
+  <si>
+    <t>Nietzsche y los griegos. En torno a la valoración ético-estética del carácter</t>
+  </si>
+  <si>
+    <t>Universidad Autónoma de Colombia (Bogotá)</t>
+  </si>
+  <si>
+    <t>La tradición peripatética de los catálogos de vicios y virtudes</t>
+  </si>
+  <si>
+    <t>Universidad Autónoma Metropolitana (México DF)</t>
+  </si>
+  <si>
+    <t>Las pasiones del virtuoso según Tomás de Aquino</t>
+  </si>
+  <si>
+    <t>Universidad del Quindío</t>
+  </si>
+  <si>
+    <t>Horizonte para una ética ambiental</t>
+  </si>
+  <si>
+    <t>Universidad Nacional de Colombia.</t>
+  </si>
+  <si>
+    <t>Enredos Telúricos</t>
+  </si>
+  <si>
+    <t>Universidad Nacional de Colombia, Sede Manizales</t>
+  </si>
+  <si>
+    <t>La aspiración ética ricœuriana y la solidaridad social y ambiental</t>
+  </si>
+  <si>
+    <t>EL FUTURO DEL AMBIENTALISMO: ENTRE EL PRINCIPIO DE LA LEY DE MURPHY Y EL MITO DE CASANDRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA PHRÓNESIS EN LOS ANIMALES </t>
   </si>
   <si>
     <t>El papel de la confianza en la acción colectiva</t>
@@ -1072,31 +855,137 @@
     <t xml:space="preserve">Acciones y deberes morales: sobre los deberes más allá de las capacidades de los agentes  </t>
   </si>
   <si>
-    <t>Coordinador: Retórica y filosofía antigua</t>
+    <t>Univocidad del ser en Enrique de Gante y Juan Duns Escoto: el transfondo aviceniano</t>
+  </si>
+  <si>
+    <t>Agustín y Cicerón: de la retórica a la filosofía</t>
+  </si>
+  <si>
+    <t>Ockham y Anselmo sobre la verdad</t>
+  </si>
+  <si>
+    <t>La teoría de la verdad de Anselmo de Canterbury</t>
+  </si>
+  <si>
+    <t>Filosofía de la música en san Agustín: el papel de la práctica musical en el acercamiento a realidades inmateriales</t>
+  </si>
+  <si>
+    <t>El Arte luliano y la recepción medieval de los Tópicos de Aristóteles</t>
+  </si>
+  <si>
+    <t>COLCIENCIAS/Universidad Nacional de Colombia</t>
+  </si>
+  <si>
+    <t>El papel de la demostración en el pensamiento político de Marsilio de Padua</t>
+  </si>
+  <si>
+    <t>Univrsidad Autónoma Metropolitana (México DF)</t>
+  </si>
+  <si>
+    <t>Emociones Morales Dilemas e Infortunio</t>
+  </si>
+  <si>
+    <t>Programa Filosofía Universidad Externado</t>
+  </si>
+  <si>
+    <t>¿ Que es el Comportamiento Automático ?</t>
+  </si>
+  <si>
+    <t>Programa de Filosofía Universidad Externado</t>
+  </si>
+  <si>
+    <t>El Deseo Como Voluntad en Gilles Deleuze</t>
+  </si>
+  <si>
+    <t>Programa de Filosifía Universidad Externado</t>
+  </si>
+  <si>
+    <t>Empatía y moralidad.</t>
+  </si>
+  <si>
+    <t>Universidad San buenaventura</t>
+  </si>
+  <si>
+    <t>Lealtad ampliada, sentimientos morales y derechos animales</t>
+  </si>
+  <si>
+    <t>universidad Autónoma</t>
+  </si>
+  <si>
+    <t>La subjetividad o la estética de lo inacabable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universdiad Autónoma </t>
+  </si>
+  <si>
+    <t>Thomas Hobbes,pasiones, razones y filosofia moral</t>
+  </si>
+  <si>
+    <t>Universidad de Antioquia</t>
+  </si>
+  <si>
+    <t>SOPHIA  en  el Elogio de  Helena de Gorgias</t>
   </si>
   <si>
     <t>Departamento de Filosofía, Universidad de los Andes</t>
   </si>
   <si>
-    <t>SOPHIA  en  el Elogio de  Helena de Gorgias</t>
-  </si>
-  <si>
     <t>“¿A quién engaña la retórica? La parodia de la justicia en el Gorgias de Platón”</t>
   </si>
   <si>
+    <t>Apuntes sobre la retórica y el arte político socrático: una lectura dramática del Gorgias de Platón.</t>
+  </si>
+  <si>
     <t>Facultad de Derecho, Universidad de los Andes</t>
   </si>
   <si>
-    <t>Apuntes sobre la retórica y el arte político socrático: una lectura dramática del Gorgias de Platón.</t>
-  </si>
-  <si>
     <t>Retórica y virtudes argumentativas</t>
   </si>
   <si>
+    <t>Moralidad y Retórica: descripción e inversión de las virtudes y los vicios en la Guerra Civil (stásis) en Corcira (Tucídides, III, 82-84).</t>
+  </si>
+  <si>
     <t>Departamento de Filosofía, Universidad de la Sabana</t>
   </si>
   <si>
-    <t>Moralidad y Retórica: descripción e inversión de las virtudes y los vicios en la Guerra Civil (stásis) en Corcira (Tucídides, III, 82-84).</t>
+    <t xml:space="preserve">Una densa trama de bagatelas. Una reflexión sobre la obra ensayística de Hernando Téllez </t>
+  </si>
+  <si>
+    <t>Libertad de imprenta: un desafío para el pensamiento liberal colombiano del siglo XIX</t>
+  </si>
+  <si>
+    <t>Cómo leer a Nicolás Gómez Dávila: claves para interpretar la filosofía de Textos I.</t>
+  </si>
+  <si>
+    <t>Universidad Colegio Mayor de Nuestra Señora del Rosario</t>
+  </si>
+  <si>
+    <t>Balance crítico de la filosofía política en Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rafael Carrillo Filosofo- Educador </t>
+  </si>
+  <si>
+    <t>Universidad del Atlántico</t>
+  </si>
+  <si>
+    <t>La filosofía como "disciplina escolar" en Colombia. Siglos XVII a XX: una hipótesis</t>
+  </si>
+  <si>
+    <t>Tras la justicia en la filosofía política actual en Colombia</t>
+  </si>
+  <si>
+    <t>Universidad Santo Tomás</t>
+  </si>
+  <si>
+    <t>En todo reaccionario Platón resucita:
+trazos para un retrato de Nicolás Gómez Dávila como pensador reaccionario</t>
+  </si>
+  <si>
+    <t>Escritos de juventud de Danilo Cruz Vélez</t>
+  </si>
+  <si>
+    <t>Sobre la publicación de las Obras completas de Danilo Cruz Vélez</t>
   </si>
 </sst>
 </file>
@@ -1445,7 +1334,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B222"/>
+  <dimension ref="A1:B195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1479,79 +1368,79 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1567,7 +1456,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
@@ -1591,7 +1480,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
@@ -1599,23 +1488,23 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
         <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
         <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
         <v>37</v>
@@ -1623,1610 +1512,1394 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B45" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="B47" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B49" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="B50" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B52" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B54" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="B55" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="B56" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B57" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="B58" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="B59" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="B60" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="B61" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="B62" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B63" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="B64" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="B65" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="B66" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="B67" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="B68" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="B69" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="B70" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="B71" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="B72" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B73" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B74" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="B75" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="B76" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B77" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="B78" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="B79" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="B80" t="s">
-        <v>22</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="B81" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="B82" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="B83" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="B84" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="B85" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="B86" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B87" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="B88" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B89" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B90" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B91" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B92" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B93" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B94" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B95" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="B96" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B97" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>142</v>
+        <v>58</v>
       </c>
       <c r="B98" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="B99" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="B100" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B101" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>19</v>
+        <v>155</v>
       </c>
       <c r="B102" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="B103" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B104" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>19</v>
+        <v>161</v>
       </c>
       <c r="B105" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>19</v>
+        <v>163</v>
       </c>
       <c r="B106" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>35</v>
+        <v>165</v>
       </c>
       <c r="B107" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="B108" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>25</v>
+        <v>169</v>
       </c>
       <c r="B109" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="B110" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="B111" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="B112" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="B114" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="B115" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>167</v>
+        <v>22</v>
       </c>
       <c r="B116" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>164</v>
+        <v>22</v>
       </c>
       <c r="B117" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="B118" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="B119" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B120" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>174</v>
+        <v>107</v>
       </c>
       <c r="B121" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>176</v>
+        <v>107</v>
       </c>
       <c r="B122" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="B123" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>174</v>
+        <v>107</v>
       </c>
       <c r="B124" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>180</v>
+        <v>107</v>
       </c>
       <c r="B125" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>182</v>
+        <v>111</v>
       </c>
       <c r="B126" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="B127" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>44</v>
+        <v>195</v>
       </c>
       <c r="B128" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="B129" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="B130" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="B131" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="B132" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="B133" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="B134" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="B135" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="B136" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="B137" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="B138" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B139" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B140" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="B141" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="B142" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="B143" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="B144" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B145" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B146" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="B147" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="B148" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="B149" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="B150" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="B151" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="B152" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="B153" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="B154" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>164</v>
+        <v>248</v>
       </c>
       <c r="B155" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="B156" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="B157" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B158" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B159" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>243</v>
+        <v>111</v>
       </c>
       <c r="B160" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>246</v>
+        <v>184</v>
       </c>
       <c r="B161" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>248</v>
+        <v>184</v>
       </c>
       <c r="B162" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>250</v>
+        <v>184</v>
       </c>
       <c r="B163" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>252</v>
+        <v>184</v>
       </c>
       <c r="B164" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>250</v>
+        <v>111</v>
       </c>
       <c r="B165" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>255</v>
+        <v>111</v>
       </c>
       <c r="B166" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>257</v>
+        <v>73</v>
       </c>
       <c r="B167" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="B168" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="B169" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B170" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B171" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>263</v>
+        <v>62</v>
       </c>
       <c r="B172" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B173" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>35</v>
+        <v>270</v>
       </c>
       <c r="B174" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="B175" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>35</v>
+        <v>274</v>
       </c>
       <c r="B176" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B177" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>35</v>
+        <v>278</v>
       </c>
       <c r="B178" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>35</v>
+        <v>280</v>
       </c>
       <c r="B179" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B180" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="B181" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B182" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B183" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="B184" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>284</v>
+        <v>145</v>
       </c>
       <c r="B185" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B186" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>288</v>
+        <v>155</v>
       </c>
       <c r="B187" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>290</v>
+        <v>129</v>
       </c>
       <c r="B188" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B189" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>294</v>
+        <v>129</v>
       </c>
       <c r="B190" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B191" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>298</v>
+        <v>129</v>
       </c>
       <c r="B192" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B193" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>2</v>
+        <v>129</v>
       </c>
       <c r="B194" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>303</v>
+        <v>111</v>
       </c>
       <c r="B195" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196" t="s">
         <v>305</v>
-      </c>
-      <c r="B196" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" t="s">
-        <v>307</v>
-      </c>
-      <c r="B197" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" t="s">
-        <v>309</v>
-      </c>
-      <c r="B198" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199" t="s">
-        <v>311</v>
-      </c>
-      <c r="B199" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200" t="s">
-        <v>313</v>
-      </c>
-      <c r="B200" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201" t="s">
-        <v>315</v>
-      </c>
-      <c r="B201" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
-      <c r="A202" t="s">
-        <v>39</v>
-      </c>
-      <c r="B202" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" t="s">
-        <v>318</v>
-      </c>
-      <c r="B203" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" t="s">
-        <v>39</v>
-      </c>
-      <c r="B204" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="A205" t="s">
-        <v>39</v>
-      </c>
-      <c r="B205" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="A206" t="s">
-        <v>107</v>
-      </c>
-      <c r="B206" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="A207" t="s">
-        <v>39</v>
-      </c>
-      <c r="B207" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
-      <c r="A208" t="s">
-        <v>324</v>
-      </c>
-      <c r="B208" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="A209" t="s">
-        <v>35</v>
-      </c>
-      <c r="B209" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
-      <c r="A210" t="s">
-        <v>147</v>
-      </c>
-      <c r="B210" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
-      <c r="A211" t="s">
-        <v>147</v>
-      </c>
-      <c r="B211" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
-      <c r="A212" t="s">
-        <v>147</v>
-      </c>
-      <c r="B212" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
-      <c r="A213" t="s">
-        <v>147</v>
-      </c>
-      <c r="B213" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2">
-      <c r="A214" t="s">
-        <v>35</v>
-      </c>
-      <c r="B214" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
-      <c r="A215" t="s">
-        <v>35</v>
-      </c>
-      <c r="B215" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
-      <c r="A216" t="s">
-        <v>21</v>
-      </c>
-      <c r="B216" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
-      <c r="A217" t="s">
-        <v>39</v>
-      </c>
-      <c r="B217" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
-      <c r="A218" t="s">
-        <v>335</v>
-      </c>
-      <c r="B218" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2">
-      <c r="A219" t="s">
-        <v>335</v>
-      </c>
-      <c r="B219" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2">
-      <c r="A220" t="s">
-        <v>338</v>
-      </c>
-      <c r="B220" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
-      <c r="A221" t="s">
-        <v>117</v>
-      </c>
-      <c r="B221" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
-      <c r="A222" t="s">
-        <v>341</v>
-      </c>
-      <c r="B222" t="s">
-        <v>342</v>
       </c>
     </row>
   </sheetData>
